--- a/biology/Neurosciences/Queue-de-cheval_(anatomie)/Queue-de-cheval_(anatomie).xlsx
+++ b/biology/Neurosciences/Queue-de-cheval_(anatomie)/Queue-de-cheval_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La queue-de-cheval (du lat. cauda equina) est un faisceau de cordons nerveux visible dans la zone inférieure de la colonne vertébrale, qui marque la « fin » du tube neural, au niveau de la seconde vertèbre lombaire L2, à partir de laquelle on pratique la ponction lombaire[1].
-Elle est constituée de nerfs de la moelle épinière, qui se trouvent vers les vertèbres lombaires, sacrées et coccygiennes[2].
-La compression de cette zone provoque le syndrome de la queue-de-cheval, dont les symptômes sont variables en fonction de la gravité de la compression : sciatique uni- ou bilatérale (selon l'uni- ou bilatéralité de la compression), paraplégie périphérique, atrophie des muscles et incontinence anale et vésicale[3],[4]. 
-Les formes graves de ce syndrome se traitent par neurochirurgie[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La queue-de-cheval (du lat. cauda equina) est un faisceau de cordons nerveux visible dans la zone inférieure de la colonne vertébrale, qui marque la « fin » du tube neural, au niveau de la seconde vertèbre lombaire L2, à partir de laquelle on pratique la ponction lombaire.
+Elle est constituée de nerfs de la moelle épinière, qui se trouvent vers les vertèbres lombaires, sacrées et coccygiennes.
+La compression de cette zone provoque le syndrome de la queue-de-cheval, dont les symptômes sont variables en fonction de la gravité de la compression : sciatique uni- ou bilatérale (selon l'uni- ou bilatéralité de la compression), paraplégie périphérique, atrophie des muscles et incontinence anale et vésicale,. 
+Les formes graves de ce syndrome se traitent par neurochirurgie,.
 </t>
         </is>
       </c>
